--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Diciembre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Diciembre.xlsx
@@ -238,11 +238,11 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">Abandono De La Querella</t>
+          <t xml:space="preserve">Acoge Requerimiento (Monitorio).</t>
         </is>
       </c>
       <c r="C3" s="65">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -253,11 +253,11 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Acoge Requerimiento (Monitorio).</t>
+          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
         </is>
       </c>
       <c r="C4" s="65">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -268,7 +268,7 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Acumulación.</t>
+          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
         </is>
       </c>
       <c r="C5" s="65">
@@ -283,11 +283,11 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
+          <t xml:space="preserve">Declara Incompetencia.</t>
         </is>
       </c>
       <c r="C6" s="65">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -298,11 +298,11 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
+          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
         </is>
       </c>
       <c r="C7" s="65">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -313,56 +313,11 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
+          <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
       <c r="C8" s="65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="inlineStr" r="A9">
-        <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B9">
-        <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
-        </is>
-      </c>
-      <c r="C9" s="65">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="inlineStr" r="A10">
-        <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B10">
-        <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
-        </is>
-      </c>
-      <c r="C10" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="inlineStr" r="A11">
-        <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B11">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C11" s="65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
